--- a/data/pca/factorExposure/factorExposure_2009-01-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-16.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01694479781889307</v>
+        <v>-0.01575133759735261</v>
       </c>
       <c r="C2">
-        <v>0.008383590920542465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01085670514210731</v>
+      </c>
+      <c r="D2">
+        <v>-0.01420926716211924</v>
+      </c>
+      <c r="E2">
+        <v>-0.002120409063977285</v>
+      </c>
+      <c r="F2">
+        <v>0.01140947881495929</v>
+      </c>
+      <c r="G2">
+        <v>0.01519699618689446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08035578442963481</v>
+        <v>-0.08262437582963261</v>
       </c>
       <c r="C4">
-        <v>0.08257487765061775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08736991772976754</v>
+      </c>
+      <c r="D4">
+        <v>0.05903372362058246</v>
+      </c>
+      <c r="E4">
+        <v>0.03329902388065269</v>
+      </c>
+      <c r="F4">
+        <v>0.02863840623960049</v>
+      </c>
+      <c r="G4">
+        <v>0.03066378918945525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.003210705899241579</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.002093230343931895</v>
+      </c>
+      <c r="D5">
+        <v>0.002357234264848957</v>
+      </c>
+      <c r="E5">
+        <v>-0.002481728743196462</v>
+      </c>
+      <c r="F5">
+        <v>-0.002529260606012585</v>
+      </c>
+      <c r="G5">
+        <v>-0.001408240508048494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1683188383313809</v>
+        <v>-0.1696485479610037</v>
       </c>
       <c r="C6">
-        <v>-0.02209114162952218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.01298643968653445</v>
+      </c>
+      <c r="D6">
+        <v>0.04540244369711243</v>
+      </c>
+      <c r="E6">
+        <v>0.03253440407739763</v>
+      </c>
+      <c r="F6">
+        <v>-0.0634970152828935</v>
+      </c>
+      <c r="G6">
+        <v>-0.0007892568680670497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05441691446691665</v>
+        <v>-0.05798949967933684</v>
       </c>
       <c r="C7">
-        <v>0.0578407159869745</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.06247466316551516</v>
+      </c>
+      <c r="D7">
+        <v>0.03879283087314805</v>
+      </c>
+      <c r="E7">
+        <v>0.06938474794155214</v>
+      </c>
+      <c r="F7">
+        <v>0.06016211148299996</v>
+      </c>
+      <c r="G7">
+        <v>0.04528705616606953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05494120421996513</v>
+        <v>-0.05154501444453937</v>
       </c>
       <c r="C8">
-        <v>0.05396680320749143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.05427013245681105</v>
+      </c>
+      <c r="D8">
+        <v>-0.01181876066572869</v>
+      </c>
+      <c r="E8">
+        <v>-0.005739206411966512</v>
+      </c>
+      <c r="F8">
+        <v>0.04202846699803228</v>
+      </c>
+      <c r="G8">
+        <v>0.0006197769258870438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05927895846068431</v>
+        <v>-0.06256138103087135</v>
       </c>
       <c r="C9">
-        <v>0.08709479997246457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09074306781953918</v>
+      </c>
+      <c r="D9">
+        <v>0.08218115967008595</v>
+      </c>
+      <c r="E9">
+        <v>0.04621746794357035</v>
+      </c>
+      <c r="F9">
+        <v>0.05443694467423319</v>
+      </c>
+      <c r="G9">
+        <v>0.005715683793305277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1106274630270619</v>
+        <v>-0.1020398669526406</v>
       </c>
       <c r="C10">
-        <v>-0.1435633441647692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1347825026686137</v>
+      </c>
+      <c r="D10">
+        <v>-0.09189350437596983</v>
+      </c>
+      <c r="E10">
+        <v>-0.04554762300180631</v>
+      </c>
+      <c r="F10">
+        <v>0.05075911372785077</v>
+      </c>
+      <c r="G10">
+        <v>-0.02220735302577246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.077241035851977</v>
+        <v>-0.07569811647945052</v>
       </c>
       <c r="C11">
-        <v>0.1259276094153657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.126450450024156</v>
+      </c>
+      <c r="D11">
+        <v>0.05654155620168765</v>
+      </c>
+      <c r="E11">
+        <v>0.01084625097063977</v>
+      </c>
+      <c r="F11">
+        <v>0.07616708176296649</v>
+      </c>
+      <c r="G11">
+        <v>-0.001970209061000343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08005936280839265</v>
+        <v>-0.07645710396253191</v>
       </c>
       <c r="C12">
-        <v>0.1504477374258805</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1503805921099612</v>
+      </c>
+      <c r="D12">
+        <v>0.06379860587240913</v>
+      </c>
+      <c r="E12">
+        <v>0.01696166222651652</v>
+      </c>
+      <c r="F12">
+        <v>0.07957363805107372</v>
+      </c>
+      <c r="G12">
+        <v>0.004889896583266095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04067390274914575</v>
+        <v>-0.04167987597079918</v>
       </c>
       <c r="C13">
-        <v>0.06433725676962314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07072436898994625</v>
+      </c>
+      <c r="D13">
+        <v>0.02774275549742853</v>
+      </c>
+      <c r="E13">
+        <v>0.0235516160068081</v>
+      </c>
+      <c r="F13">
+        <v>0.07551607574080839</v>
+      </c>
+      <c r="G13">
+        <v>0.01350212202670564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01969061303003725</v>
+        <v>-0.02278258195002138</v>
       </c>
       <c r="C14">
-        <v>0.04484775666393925</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.0453326161605215</v>
+      </c>
+      <c r="D14">
+        <v>0.05354874457426595</v>
+      </c>
+      <c r="E14">
+        <v>0.01077922827452502</v>
+      </c>
+      <c r="F14">
+        <v>0.07897162013818282</v>
+      </c>
+      <c r="G14">
+        <v>-0.007252648139983391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03119740613559572</v>
+        <v>-0.03355830872231885</v>
       </c>
       <c r="C15">
-        <v>0.05774579775742655</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.05730231372487844</v>
+      </c>
+      <c r="D15">
+        <v>0.0393546847036859</v>
+      </c>
+      <c r="E15">
+        <v>0.03418922823640251</v>
+      </c>
+      <c r="F15">
+        <v>0.02681298076054838</v>
+      </c>
+      <c r="G15">
+        <v>-0.01018369570991604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05613152350343291</v>
+        <v>-0.05616883149740329</v>
       </c>
       <c r="C16">
-        <v>0.146625140646118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1470789421732846</v>
+      </c>
+      <c r="D16">
+        <v>0.07450765943558652</v>
+      </c>
+      <c r="E16">
+        <v>-0.004637255369605591</v>
+      </c>
+      <c r="F16">
+        <v>0.07368404521264235</v>
+      </c>
+      <c r="G16">
+        <v>0.003091800915939298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.005699098646695966</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.004780373393572315</v>
+      </c>
+      <c r="D17">
+        <v>0.003048908927748514</v>
+      </c>
+      <c r="E17">
+        <v>-0.007715619062665423</v>
+      </c>
+      <c r="F17">
+        <v>-0.006686743755831667</v>
+      </c>
+      <c r="G17">
+        <v>-0.01480809743416405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03751825483031032</v>
+        <v>-0.05222109145491671</v>
       </c>
       <c r="C18">
-        <v>0.05062261286793005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04560670249552281</v>
+      </c>
+      <c r="D18">
+        <v>-0.006305668565232929</v>
+      </c>
+      <c r="E18">
+        <v>-0.001486022407603176</v>
+      </c>
+      <c r="F18">
+        <v>-0.05970509411249958</v>
+      </c>
+      <c r="G18">
+        <v>-0.01083324394709113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05694998828780829</v>
+        <v>-0.05653947563893902</v>
       </c>
       <c r="C20">
-        <v>0.09504429620354136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.09444796381028348</v>
+      </c>
+      <c r="D20">
+        <v>0.08581457247438098</v>
+      </c>
+      <c r="E20">
+        <v>0.02406442884172235</v>
+      </c>
+      <c r="F20">
+        <v>0.07027840995271746</v>
+      </c>
+      <c r="G20">
+        <v>-0.00344531569550599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04399752421778637</v>
+        <v>-0.045100034435689</v>
       </c>
       <c r="C21">
-        <v>0.06089675644712521</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.05876549550048243</v>
+      </c>
+      <c r="D21">
+        <v>0.009895548515650566</v>
+      </c>
+      <c r="E21">
+        <v>0.0207431614585029</v>
+      </c>
+      <c r="F21">
+        <v>0.06751253000839429</v>
+      </c>
+      <c r="G21">
+        <v>0.0207765318226427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04603499918083283</v>
+        <v>-0.04478570763386895</v>
       </c>
       <c r="C22">
-        <v>0.02456070287312002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03070322748524732</v>
+      </c>
+      <c r="D22">
+        <v>0.008710038110295483</v>
+      </c>
+      <c r="E22">
+        <v>-0.1564089024552171</v>
+      </c>
+      <c r="F22">
+        <v>-0.01500198124935956</v>
+      </c>
+      <c r="G22">
+        <v>0.0001807518549909934</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04604452715083758</v>
+        <v>-0.0447938397480831</v>
       </c>
       <c r="C23">
-        <v>0.02455363024901614</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03069713421965354</v>
+      </c>
+      <c r="D23">
+        <v>0.008695136382161022</v>
+      </c>
+      <c r="E23">
+        <v>-0.1564544169153838</v>
+      </c>
+      <c r="F23">
+        <v>-0.01499002688464774</v>
+      </c>
+      <c r="G23">
+        <v>0.0001402993082028429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06451117102069499</v>
+        <v>-0.06433671744587351</v>
       </c>
       <c r="C24">
-        <v>0.1344847129352834</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.1333061199857812</v>
+      </c>
+      <c r="D24">
+        <v>0.06426561777734682</v>
+      </c>
+      <c r="E24">
+        <v>0.01558173103458027</v>
+      </c>
+      <c r="F24">
+        <v>0.07118320224776327</v>
+      </c>
+      <c r="G24">
+        <v>0.006647115317902655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07023434280857184</v>
+        <v>-0.06936817235476386</v>
       </c>
       <c r="C25">
-        <v>0.1193437038578836</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1186675512685337</v>
+      </c>
+      <c r="D25">
+        <v>0.03478295628311673</v>
+      </c>
+      <c r="E25">
+        <v>0.03474638336053981</v>
+      </c>
+      <c r="F25">
+        <v>0.08918492147914364</v>
+      </c>
+      <c r="G25">
+        <v>0.008650490560994989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05591493889825132</v>
+        <v>-0.05990609815138149</v>
       </c>
       <c r="C26">
-        <v>0.06800260817689742</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.06909141637502714</v>
+      </c>
+      <c r="D26">
+        <v>0.03245000252875036</v>
+      </c>
+      <c r="E26">
+        <v>0.004742968378652921</v>
+      </c>
+      <c r="F26">
+        <v>0.08259209949477071</v>
+      </c>
+      <c r="G26">
+        <v>-0.002722464108391087</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1723454130894024</v>
+        <v>-0.1750536657736415</v>
       </c>
       <c r="C28">
-        <v>-0.2274607380390302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2274745507631259</v>
+      </c>
+      <c r="D28">
+        <v>-0.04221976172417845</v>
+      </c>
+      <c r="E28">
+        <v>0.05347137468694985</v>
+      </c>
+      <c r="F28">
+        <v>0.1419847280706605</v>
+      </c>
+      <c r="G28">
+        <v>-0.007075132085102913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02363997356871554</v>
+        <v>-0.0264715615696119</v>
       </c>
       <c r="C29">
-        <v>0.05142144007014305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.04907976183116466</v>
+      </c>
+      <c r="D29">
+        <v>0.02410621650380705</v>
+      </c>
+      <c r="E29">
+        <v>-0.009726273788471291</v>
+      </c>
+      <c r="F29">
+        <v>0.07446111411525586</v>
+      </c>
+      <c r="G29">
+        <v>-0.004273602750040478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03819312533096657</v>
+        <v>-0.04025833183732962</v>
       </c>
       <c r="C30">
-        <v>0.06876101442508042</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07556821043720183</v>
+      </c>
+      <c r="D30">
+        <v>0.08786598065096532</v>
+      </c>
+      <c r="E30">
+        <v>0.1178825876862376</v>
+      </c>
+      <c r="F30">
+        <v>0.06506106495168001</v>
+      </c>
+      <c r="G30">
+        <v>-0.01130752957640841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05198140817598099</v>
+        <v>-0.05153041082058248</v>
       </c>
       <c r="C31">
-        <v>0.03355153100085589</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03583739488958399</v>
+      </c>
+      <c r="D31">
+        <v>0.02656978373940115</v>
+      </c>
+      <c r="E31">
+        <v>-0.02694165390026623</v>
+      </c>
+      <c r="F31">
+        <v>0.02031292808555478</v>
+      </c>
+      <c r="G31">
+        <v>0.0235265109551234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04441123438584318</v>
+        <v>-0.04892074714610427</v>
       </c>
       <c r="C32">
-        <v>0.0527407073457992</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.0499913781838467</v>
+      </c>
+      <c r="D32">
+        <v>0.03173405232970038</v>
+      </c>
+      <c r="E32">
+        <v>-0.006162240215911602</v>
+      </c>
+      <c r="F32">
+        <v>0.007260432416903388</v>
+      </c>
+      <c r="G32">
+        <v>-0.007085872184300696</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07899794544713462</v>
+        <v>-0.08186302345227095</v>
       </c>
       <c r="C33">
-        <v>0.1141476539716757</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1225458171606908</v>
+      </c>
+      <c r="D33">
+        <v>0.07470523055430887</v>
+      </c>
+      <c r="E33">
+        <v>0.02317410139530933</v>
+      </c>
+      <c r="F33">
+        <v>0.07099186007530467</v>
+      </c>
+      <c r="G33">
+        <v>-0.002582516334651641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05376353480876255</v>
+        <v>-0.05401027177709293</v>
       </c>
       <c r="C34">
-        <v>0.1206737641118326</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1224305741017447</v>
+      </c>
+      <c r="D34">
+        <v>0.06650467030557121</v>
+      </c>
+      <c r="E34">
+        <v>0.05045740531510675</v>
+      </c>
+      <c r="F34">
+        <v>0.08049703617110887</v>
+      </c>
+      <c r="G34">
+        <v>-0.02372075353499626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02590367525378967</v>
+        <v>-0.02887208957517462</v>
       </c>
       <c r="C35">
-        <v>0.0152352739045861</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.01776585555134162</v>
+      </c>
+      <c r="D35">
+        <v>0.02857544478728381</v>
+      </c>
+      <c r="E35">
+        <v>-0.0108808220436622</v>
+      </c>
+      <c r="F35">
+        <v>0.03491103176676955</v>
+      </c>
+      <c r="G35">
+        <v>-0.02800049004659656</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02324637072807479</v>
+        <v>-0.02727491525421186</v>
       </c>
       <c r="C36">
-        <v>0.05000135165970328</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.04966704192593613</v>
+      </c>
+      <c r="D36">
+        <v>0.06465388701873265</v>
+      </c>
+      <c r="E36">
+        <v>0.01138399359214536</v>
+      </c>
+      <c r="F36">
+        <v>0.02676502609921063</v>
+      </c>
+      <c r="G36">
+        <v>-0.08088961111725054</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.000209197282369373</v>
+        <v>-0.003538133789054949</v>
       </c>
       <c r="C37">
-        <v>-9.895585276247629e-05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.007401917100871252</v>
+      </c>
+      <c r="D37">
+        <v>0.001675469769625671</v>
+      </c>
+      <c r="E37">
+        <v>0.001324719938228016</v>
+      </c>
+      <c r="F37">
+        <v>0.01037838318073823</v>
+      </c>
+      <c r="G37">
+        <v>0.006377018239000632</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08053395633309965</v>
+        <v>-0.07524320126687198</v>
       </c>
       <c r="C39">
-        <v>0.1479364516389995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1433479334718241</v>
+      </c>
+      <c r="D39">
+        <v>0.04175380432732045</v>
+      </c>
+      <c r="E39">
+        <v>-0.005407120506989757</v>
+      </c>
+      <c r="F39">
+        <v>0.1317114472940142</v>
+      </c>
+      <c r="G39">
+        <v>0.04374506074953604</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04495537765458425</v>
+        <v>-0.04976712102158085</v>
       </c>
       <c r="C40">
-        <v>0.06790965932040964</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.07318531707720699</v>
+      </c>
+      <c r="D40">
+        <v>0.01936225878330262</v>
+      </c>
+      <c r="E40">
+        <v>0.003665290465016273</v>
+      </c>
+      <c r="F40">
+        <v>0.0487194331172275</v>
+      </c>
+      <c r="G40">
+        <v>-0.0411769183381999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02665001712035198</v>
+        <v>-0.02832707003597069</v>
       </c>
       <c r="C41">
-        <v>0.02221027256250427</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02324514505097839</v>
+      </c>
+      <c r="D41">
+        <v>-0.004622947034411032</v>
+      </c>
+      <c r="E41">
+        <v>-0.009244801527278553</v>
+      </c>
+      <c r="F41">
+        <v>-0.01000273791092482</v>
+      </c>
+      <c r="G41">
+        <v>-0.01316369950110519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04177919995214813</v>
+        <v>-0.04128762960056921</v>
       </c>
       <c r="C43">
-        <v>0.03943113112876399</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.03609771227755863</v>
+      </c>
+      <c r="D43">
+        <v>0.01187017010193448</v>
+      </c>
+      <c r="E43">
+        <v>-0.0326407117718225</v>
+      </c>
+      <c r="F43">
+        <v>0.02617462267329656</v>
+      </c>
+      <c r="G43">
+        <v>0.000151856783646444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05482512191596483</v>
+        <v>-0.06228488626771347</v>
       </c>
       <c r="C44">
-        <v>0.07908321093053901</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.08316947243209176</v>
+      </c>
+      <c r="D44">
+        <v>0.2433150180258391</v>
+      </c>
+      <c r="E44">
+        <v>0.1596773266126</v>
+      </c>
+      <c r="F44">
+        <v>0.126484147037182</v>
+      </c>
+      <c r="G44">
+        <v>-0.1627943964535352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0004444759013452735</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.001035859632340844</v>
+      </c>
+      <c r="D45">
+        <v>-0.00188189332630688</v>
+      </c>
+      <c r="E45">
+        <v>0.001388167889635684</v>
+      </c>
+      <c r="F45">
+        <v>-0.003482277491585382</v>
+      </c>
+      <c r="G45">
+        <v>0.0045293322014206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02888283244592479</v>
+        <v>-0.02857410575442574</v>
       </c>
       <c r="C46">
-        <v>0.03736713239489292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.03723555304043896</v>
+      </c>
+      <c r="D46">
+        <v>0.03155150339876778</v>
+      </c>
+      <c r="E46">
+        <v>-0.02699182037628761</v>
+      </c>
+      <c r="F46">
+        <v>0.07172561414083754</v>
+      </c>
+      <c r="G46">
+        <v>0.02471026158814371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05314558173832804</v>
+        <v>-0.05260351429824559</v>
       </c>
       <c r="C47">
-        <v>0.03133708111763235</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.0338917337391254</v>
+      </c>
+      <c r="D47">
+        <v>0.00570037894952975</v>
+      </c>
+      <c r="E47">
+        <v>-0.05699125747248993</v>
+      </c>
+      <c r="F47">
+        <v>-0.00654989000405839</v>
+      </c>
+      <c r="G47">
+        <v>0.02721524677533455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04618175459676025</v>
+        <v>-0.04922922196792687</v>
       </c>
       <c r="C48">
-        <v>0.06815844817056436</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.06814349286247157</v>
+      </c>
+      <c r="D48">
+        <v>0.0179657269563198</v>
+      </c>
+      <c r="E48">
+        <v>0.03104211498269224</v>
+      </c>
+      <c r="F48">
+        <v>0.05564093960649991</v>
+      </c>
+      <c r="G48">
+        <v>0.0288780915324307</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1932609217115027</v>
+        <v>-0.196991971661833</v>
       </c>
       <c r="C49">
-        <v>-0.01610034756531841</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.01010672201109388</v>
+      </c>
+      <c r="D49">
+        <v>0.02437014648651743</v>
+      </c>
+      <c r="E49">
+        <v>0.03899580714079148</v>
+      </c>
+      <c r="F49">
+        <v>-0.05541873412817664</v>
+      </c>
+      <c r="G49">
+        <v>0.01280389665561703</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05031075728260442</v>
+        <v>-0.05197698953020956</v>
       </c>
       <c r="C50">
-        <v>0.03238390362424391</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03439877633330294</v>
+      </c>
+      <c r="D50">
+        <v>0.03311950799567372</v>
+      </c>
+      <c r="E50">
+        <v>-0.01252099331205026</v>
+      </c>
+      <c r="F50">
+        <v>0.008987030889788814</v>
+      </c>
+      <c r="G50">
+        <v>0.02448543219140309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1426213479196119</v>
+        <v>-0.1364970828643493</v>
       </c>
       <c r="C52">
-        <v>0.03181434545337124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03275341449485172</v>
+      </c>
+      <c r="D52">
+        <v>0.05690234551541115</v>
+      </c>
+      <c r="E52">
+        <v>-0.01608146229696679</v>
+      </c>
+      <c r="F52">
+        <v>-0.07636026163625333</v>
+      </c>
+      <c r="G52">
+        <v>0.03571079697138006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1706529593421763</v>
+        <v>-0.1620837162506653</v>
       </c>
       <c r="C53">
-        <v>-0.01255449581749174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.007838787010614105</v>
+      </c>
+      <c r="D53">
+        <v>0.09626671497411432</v>
+      </c>
+      <c r="E53">
+        <v>-0.008301511706551854</v>
+      </c>
+      <c r="F53">
+        <v>-0.1269348306214958</v>
+      </c>
+      <c r="G53">
+        <v>0.07219745456484694</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0112137842754757</v>
+        <v>-0.0142609416444116</v>
       </c>
       <c r="C54">
-        <v>0.03404694085428811</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.03494429252120765</v>
+      </c>
+      <c r="D54">
+        <v>0.02477722478234582</v>
+      </c>
+      <c r="E54">
+        <v>-0.007749777438820614</v>
+      </c>
+      <c r="F54">
+        <v>0.04622101713794761</v>
+      </c>
+      <c r="G54">
+        <v>0.003249024391863204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1215908978689258</v>
+        <v>-0.1182374228118929</v>
       </c>
       <c r="C55">
-        <v>0.00901200677978202</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01430710867604815</v>
+      </c>
+      <c r="D55">
+        <v>0.08061525360246947</v>
+      </c>
+      <c r="E55">
+        <v>-0.0272689848702597</v>
+      </c>
+      <c r="F55">
+        <v>-0.04479378237779044</v>
+      </c>
+      <c r="G55">
+        <v>0.06891917364370845</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1798082525900243</v>
+        <v>-0.1724114937136964</v>
       </c>
       <c r="C56">
-        <v>-0.009961684012026744</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.008698210548312428</v>
+      </c>
+      <c r="D56">
+        <v>0.05740373070349609</v>
+      </c>
+      <c r="E56">
+        <v>-0.04241000532723027</v>
+      </c>
+      <c r="F56">
+        <v>-0.1562621714064207</v>
+      </c>
+      <c r="G56">
+        <v>0.07320498150510735</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04263817416837741</v>
+        <v>-0.04337717224959636</v>
       </c>
       <c r="C58">
-        <v>0.0970454068346156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.105668446378999</v>
+      </c>
+      <c r="D58">
+        <v>0.02307234593405948</v>
+      </c>
+      <c r="E58">
+        <v>-0.02924778627455138</v>
+      </c>
+      <c r="F58">
+        <v>0.0436949357282197</v>
+      </c>
+      <c r="G58">
+        <v>0.02100371495449735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1885823909745596</v>
+        <v>-0.1923888982777724</v>
       </c>
       <c r="C59">
-        <v>-0.1753114935465736</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1786884025748252</v>
+      </c>
+      <c r="D59">
+        <v>-0.07497812063829414</v>
+      </c>
+      <c r="E59">
+        <v>-0.04246647753005894</v>
+      </c>
+      <c r="F59">
+        <v>0.0786194682943072</v>
+      </c>
+      <c r="G59">
+        <v>0.03681297065754452</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2143547748508118</v>
+        <v>-0.2092386171016171</v>
       </c>
       <c r="C60">
-        <v>0.008951880840685799</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.01410912846297937</v>
+      </c>
+      <c r="D60">
+        <v>-0.04891059193914054</v>
+      </c>
+      <c r="E60">
+        <v>-0.04720149364026507</v>
+      </c>
+      <c r="F60">
+        <v>-0.1926180161483582</v>
+      </c>
+      <c r="G60">
+        <v>0.09206122484980564</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.0642216873979628</v>
+        <v>-0.06157427134175823</v>
       </c>
       <c r="C61">
-        <v>0.1223570521085211</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1210981843282113</v>
+      </c>
+      <c r="D61">
+        <v>0.04387576380142205</v>
+      </c>
+      <c r="E61">
+        <v>-0.004222074151030176</v>
+      </c>
+      <c r="F61">
+        <v>0.08805517112044511</v>
+      </c>
+      <c r="G61">
+        <v>0.0174169601777534</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1684576742041799</v>
+        <v>-0.1649349820938978</v>
       </c>
       <c r="C62">
-        <v>-0.006294389071652034</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.004486898951949631</v>
+      </c>
+      <c r="D62">
+        <v>0.05120384054938257</v>
+      </c>
+      <c r="E62">
+        <v>-0.03347420397605677</v>
+      </c>
+      <c r="F62">
+        <v>-0.1270363849100742</v>
+      </c>
+      <c r="G62">
+        <v>0.06355227119512227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03911774904482892</v>
+        <v>-0.04293192943968298</v>
       </c>
       <c r="C63">
-        <v>0.07426659660964859</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.07673568756052331</v>
+      </c>
+      <c r="D63">
+        <v>0.03666546643093536</v>
+      </c>
+      <c r="E63">
+        <v>-0.007677623116985385</v>
+      </c>
+      <c r="F63">
+        <v>0.04997819379428563</v>
+      </c>
+      <c r="G63">
+        <v>-0.0285368355817814</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1126728597303426</v>
+        <v>-0.1101050062904126</v>
       </c>
       <c r="C64">
-        <v>0.0511515026925479</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.05480547117493432</v>
+      </c>
+      <c r="D64">
+        <v>0.0388379055630419</v>
+      </c>
+      <c r="E64">
+        <v>-0.003434361264302621</v>
+      </c>
+      <c r="F64">
+        <v>-0.03607831245839295</v>
+      </c>
+      <c r="G64">
+        <v>0.001874068742446077</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.158987171367254</v>
+        <v>-0.1617102547476505</v>
       </c>
       <c r="C65">
-        <v>-0.05831427232231425</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04787520366761978</v>
+      </c>
+      <c r="D65">
+        <v>0.0473701302997194</v>
+      </c>
+      <c r="E65">
+        <v>0.03177865721108324</v>
+      </c>
+      <c r="F65">
+        <v>-0.01893040550459873</v>
+      </c>
+      <c r="G65">
+        <v>0.02431579847364474</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09775652021643456</v>
+        <v>-0.09177242072334248</v>
       </c>
       <c r="C66">
-        <v>0.1263515994582914</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1273383898680635</v>
+      </c>
+      <c r="D66">
+        <v>0.03903418329837575</v>
+      </c>
+      <c r="E66">
+        <v>0.003409019351761034</v>
+      </c>
+      <c r="F66">
+        <v>0.1029811461449688</v>
+      </c>
+      <c r="G66">
+        <v>-0.006097941101091521</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05860374318378701</v>
+        <v>-0.04945394209632219</v>
       </c>
       <c r="C67">
-        <v>0.09125807508417103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.08482330544690268</v>
+      </c>
+      <c r="D67">
+        <v>-0.01969423416931963</v>
+      </c>
+      <c r="E67">
+        <v>-0.09420938268265748</v>
+      </c>
+      <c r="F67">
+        <v>-0.03358832391582176</v>
+      </c>
+      <c r="G67">
+        <v>-0.001112201821908583</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1412477370790957</v>
+        <v>-0.143924772884689</v>
       </c>
       <c r="C68">
-        <v>-0.2441946255953938</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2461993193581657</v>
+      </c>
+      <c r="D68">
+        <v>-0.07349570249245657</v>
+      </c>
+      <c r="E68">
+        <v>0.08687515530558855</v>
+      </c>
+      <c r="F68">
+        <v>0.1218453140115138</v>
+      </c>
+      <c r="G68">
+        <v>0.02173202137514908</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0398039429972365</v>
+        <v>-0.03868120365175155</v>
       </c>
       <c r="C69">
-        <v>0.01611107142006892</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01809545320063485</v>
+      </c>
+      <c r="D69">
+        <v>0.02870112117540487</v>
+      </c>
+      <c r="E69">
+        <v>-0.05787799689725685</v>
+      </c>
+      <c r="F69">
+        <v>-0.04210120235463479</v>
+      </c>
+      <c r="G69">
+        <v>-0.02441929854729578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07284400598516313</v>
+        <v>-0.07366315747129094</v>
       </c>
       <c r="C70">
-        <v>0.09652979151913486</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.09291766824691636</v>
+      </c>
+      <c r="D70">
+        <v>-0.3525184252701558</v>
+      </c>
+      <c r="E70">
+        <v>-0.3918949544007172</v>
+      </c>
+      <c r="F70">
+        <v>-0.2702298524652777</v>
+      </c>
+      <c r="G70">
+        <v>0.4226334149914457</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1645580383227846</v>
+        <v>-0.168495846105094</v>
       </c>
       <c r="C71">
-        <v>-0.2520223791672012</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2506039143603962</v>
+      </c>
+      <c r="D71">
+        <v>-0.08313089043219574</v>
+      </c>
+      <c r="E71">
+        <v>0.09460803621564215</v>
+      </c>
+      <c r="F71">
+        <v>0.1243087824538887</v>
+      </c>
+      <c r="G71">
+        <v>0.02154365162299079</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1431160177163184</v>
+        <v>-0.1489512032368241</v>
       </c>
       <c r="C72">
-        <v>0.008078179173331019</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.006896124501336147</v>
+      </c>
+      <c r="D72">
+        <v>0.07794856534351599</v>
+      </c>
+      <c r="E72">
+        <v>-0.02744207545625644</v>
+      </c>
+      <c r="F72">
+        <v>-0.02983867096797678</v>
+      </c>
+      <c r="G72">
+        <v>-0.009414484262183642</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1921006260520522</v>
+        <v>-0.1999536751378489</v>
       </c>
       <c r="C73">
-        <v>0.02267265004153532</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.03107691764638114</v>
+      </c>
+      <c r="D73">
+        <v>0.08367035975890241</v>
+      </c>
+      <c r="E73">
+        <v>-0.03439723254505452</v>
+      </c>
+      <c r="F73">
+        <v>-0.1058208968400372</v>
+      </c>
+      <c r="G73">
+        <v>-0.00163527866964585</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08620630084824911</v>
+        <v>-0.0852954375300255</v>
       </c>
       <c r="C74">
-        <v>0.0006888975492619673</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.007211108673520159</v>
+      </c>
+      <c r="D74">
+        <v>0.0792951353852244</v>
+      </c>
+      <c r="E74">
+        <v>-0.001415569761185188</v>
+      </c>
+      <c r="F74">
+        <v>-0.07488184350753779</v>
+      </c>
+      <c r="G74">
+        <v>0.0006961784523116424</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1230785292174338</v>
+        <v>-0.115380090018418</v>
       </c>
       <c r="C75">
-        <v>0.01892717808374843</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02141185996837046</v>
+      </c>
+      <c r="D75">
+        <v>0.07131538278314763</v>
+      </c>
+      <c r="E75">
+        <v>-0.04946406058030183</v>
+      </c>
+      <c r="F75">
+        <v>-0.06856031775813884</v>
+      </c>
+      <c r="G75">
+        <v>0.04229947289464372</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07319991846500075</v>
+        <v>-0.08650679620519233</v>
       </c>
       <c r="C77">
-        <v>0.114039027743054</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1161264240091085</v>
+      </c>
+      <c r="D77">
+        <v>0.07808729829633863</v>
+      </c>
+      <c r="E77">
+        <v>0.05000992427235231</v>
+      </c>
+      <c r="F77">
+        <v>0.08493880455450226</v>
+      </c>
+      <c r="G77">
+        <v>0.1146267596586137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08573271133741724</v>
+        <v>-0.09011516660508787</v>
       </c>
       <c r="C78">
-        <v>0.1226701853506729</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1227220503633476</v>
+      </c>
+      <c r="D78">
+        <v>0.06704420987841711</v>
+      </c>
+      <c r="E78">
+        <v>0.0386877781494482</v>
+      </c>
+      <c r="F78">
+        <v>0.1025608611920581</v>
+      </c>
+      <c r="G78">
+        <v>0.08854274599412119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1666244887209248</v>
+        <v>-0.162137822670382</v>
       </c>
       <c r="C79">
-        <v>0.01725068940031673</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.01927965473792817</v>
+      </c>
+      <c r="D79">
+        <v>0.04253191595185393</v>
+      </c>
+      <c r="E79">
+        <v>-0.03596731133123996</v>
+      </c>
+      <c r="F79">
+        <v>-0.06161240897992939</v>
+      </c>
+      <c r="G79">
+        <v>0.04328771084826877</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07494980481724943</v>
+        <v>-0.07252755218129087</v>
       </c>
       <c r="C80">
-        <v>0.07142403257123178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.06721818513064562</v>
+      </c>
+      <c r="D80">
+        <v>0.02970895083104131</v>
+      </c>
+      <c r="E80">
+        <v>-0.0299265988524264</v>
+      </c>
+      <c r="F80">
+        <v>0.09611729670272125</v>
+      </c>
+      <c r="G80">
+        <v>-0.09752751392727872</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1120939577061391</v>
+        <v>-0.1048514497447737</v>
       </c>
       <c r="C81">
-        <v>-0.01542295944670546</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.01239116094688334</v>
+      </c>
+      <c r="D81">
+        <v>0.04351451721674627</v>
+      </c>
+      <c r="E81">
+        <v>-0.06443445112544245</v>
+      </c>
+      <c r="F81">
+        <v>-0.07515618532932805</v>
+      </c>
+      <c r="G81">
+        <v>0.002386750742974386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1607395166241492</v>
+        <v>-0.1565253276395728</v>
       </c>
       <c r="C82">
-        <v>-0.01546998454436194</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01242045811639098</v>
+      </c>
+      <c r="D82">
+        <v>0.08305955768714837</v>
+      </c>
+      <c r="E82">
+        <v>0.01076179993434019</v>
+      </c>
+      <c r="F82">
+        <v>-0.1371594831660968</v>
+      </c>
+      <c r="G82">
+        <v>0.001361784783388801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05515453602505741</v>
+        <v>-0.05065892743359539</v>
       </c>
       <c r="C83">
-        <v>0.06791425648686295</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.06274679901944319</v>
+      </c>
+      <c r="D83">
+        <v>-0.003145971028004886</v>
+      </c>
+      <c r="E83">
+        <v>-0.003554206529078009</v>
+      </c>
+      <c r="F83">
+        <v>-0.0004946121770335421</v>
+      </c>
+      <c r="G83">
+        <v>0.0144496145780099</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05002264474191823</v>
+        <v>-0.04790915243099313</v>
       </c>
       <c r="C84">
-        <v>0.07272635212578843</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07119277132996663</v>
+      </c>
+      <c r="D84">
+        <v>0.002105364175678465</v>
+      </c>
+      <c r="E84">
+        <v>-0.03210261069027061</v>
+      </c>
+      <c r="F84">
+        <v>-0.007537586073569215</v>
+      </c>
+      <c r="G84">
+        <v>0.02360759796440821</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1392542578447861</v>
+        <v>-0.1334424137666205</v>
       </c>
       <c r="C85">
-        <v>0.00322197955834408</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.006350421945623488</v>
+      </c>
+      <c r="D85">
+        <v>0.0925397264389977</v>
+      </c>
+      <c r="E85">
+        <v>-0.001025777389580744</v>
+      </c>
+      <c r="F85">
+        <v>-0.05775650080622591</v>
+      </c>
+      <c r="G85">
+        <v>0.03119716481580732</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.0840699392585646</v>
+        <v>-0.08180681621513734</v>
       </c>
       <c r="C86">
-        <v>0.1488433297386876</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1482428082350397</v>
+      </c>
+      <c r="D86">
+        <v>-0.3392105824437285</v>
+      </c>
+      <c r="E86">
+        <v>-0.539914686039536</v>
+      </c>
+      <c r="F86">
+        <v>0.5409396970895866</v>
+      </c>
+      <c r="G86">
+        <v>-0.1361561414131189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.09066964783906321</v>
+        <v>-0.08772444111529422</v>
       </c>
       <c r="C87">
-        <v>0.1017801061151018</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.09973416687181566</v>
+      </c>
+      <c r="D87">
+        <v>0.02520732741829793</v>
+      </c>
+      <c r="E87">
+        <v>0.1565459178171438</v>
+      </c>
+      <c r="F87">
+        <v>0.07324842872384826</v>
+      </c>
+      <c r="G87">
+        <v>-0.0421927222841054</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06035964805984011</v>
+        <v>-0.05973446138853576</v>
       </c>
       <c r="C88">
-        <v>0.05951843272418854</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06027068242269594</v>
+      </c>
+      <c r="D88">
+        <v>0.01830506963410659</v>
+      </c>
+      <c r="E88">
+        <v>-0.01160278998721433</v>
+      </c>
+      <c r="F88">
+        <v>-0.02633075528804425</v>
+      </c>
+      <c r="G88">
+        <v>0.01307506912302315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1506777880351997</v>
+        <v>-0.1528548596491262</v>
       </c>
       <c r="C89">
-        <v>-0.19434567464016</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2034847260767799</v>
+      </c>
+      <c r="D89">
+        <v>-0.05334255187945465</v>
+      </c>
+      <c r="E89">
+        <v>0.08191658329221568</v>
+      </c>
+      <c r="F89">
+        <v>0.09509166862894398</v>
+      </c>
+      <c r="G89">
+        <v>-0.004599604822104279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1804748279210301</v>
+        <v>-0.1864141015126242</v>
       </c>
       <c r="C90">
-        <v>-0.2235606358343115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2309707694872433</v>
+      </c>
+      <c r="D90">
+        <v>-0.1086168674759233</v>
+      </c>
+      <c r="E90">
+        <v>0.1240198159376762</v>
+      </c>
+      <c r="F90">
+        <v>0.1412534745943513</v>
+      </c>
+      <c r="G90">
+        <v>0.002367867863520555</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1262199235119138</v>
+        <v>-0.1205270621689729</v>
       </c>
       <c r="C91">
-        <v>-0.02401792669026349</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.02116935471500483</v>
+      </c>
+      <c r="D91">
+        <v>0.04815026705809539</v>
+      </c>
+      <c r="E91">
+        <v>-0.1121102266062919</v>
+      </c>
+      <c r="F91">
+        <v>-0.09848370485632353</v>
+      </c>
+      <c r="G91">
+        <v>-0.009465073947479504</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1741245249750849</v>
+        <v>-0.1764974085502499</v>
       </c>
       <c r="C92">
-        <v>-0.258645841179143</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2720654681994753</v>
+      </c>
+      <c r="D92">
+        <v>-0.08390741284191999</v>
+      </c>
+      <c r="E92">
+        <v>0.07627159395924162</v>
+      </c>
+      <c r="F92">
+        <v>0.1903352876846831</v>
+      </c>
+      <c r="G92">
+        <v>0.04778635525090025</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1788770243513429</v>
+        <v>-0.18673310139614</v>
       </c>
       <c r="C93">
-        <v>-0.2192074788735448</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2243281497159274</v>
+      </c>
+      <c r="D93">
+        <v>-0.05419603103697478</v>
+      </c>
+      <c r="E93">
+        <v>0.05450168788057568</v>
+      </c>
+      <c r="F93">
+        <v>0.09885873515200616</v>
+      </c>
+      <c r="G93">
+        <v>0.0634089358018752</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1179346540341048</v>
+        <v>-0.1122261693098668</v>
       </c>
       <c r="C94">
-        <v>0.03380239521632803</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03404441912287454</v>
+      </c>
+      <c r="D94">
+        <v>0.06425188231295469</v>
+      </c>
+      <c r="E94">
+        <v>-0.04801563652005263</v>
+      </c>
+      <c r="F94">
+        <v>-0.06652695355031694</v>
+      </c>
+      <c r="G94">
+        <v>0.03834092949514943</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.117224356422015</v>
+        <v>-0.1203223843816399</v>
       </c>
       <c r="C95">
-        <v>0.09977693526885503</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.110584927511212</v>
+      </c>
+      <c r="D95">
+        <v>0.02968574259876204</v>
+      </c>
+      <c r="E95">
+        <v>-0.02923324657659702</v>
+      </c>
+      <c r="F95">
+        <v>0.07868631090326812</v>
+      </c>
+      <c r="G95">
+        <v>0.01166208815806551</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1160064135496634</v>
+        <v>-0.1140508674515482</v>
       </c>
       <c r="C96">
-        <v>0.1274332900191143</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1296676899039872</v>
+      </c>
+      <c r="D96">
+        <v>-0.01352234052371732</v>
+      </c>
+      <c r="E96">
+        <v>0.003059392850426073</v>
+      </c>
+      <c r="F96">
+        <v>-0.06427892889851683</v>
+      </c>
+      <c r="G96">
+        <v>0.09661195344020161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1922109064111851</v>
+        <v>-0.1962691802853064</v>
       </c>
       <c r="C97">
-        <v>0.002943780462775692</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.00225147917006607</v>
+      </c>
+      <c r="D97">
+        <v>-0.1185397687415385</v>
+      </c>
+      <c r="E97">
+        <v>-0.166217266379505</v>
+      </c>
+      <c r="F97">
+        <v>-0.290128030913297</v>
+      </c>
+      <c r="G97">
+        <v>-0.8154831480444987</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2028461132778422</v>
+        <v>-0.2075252278051662</v>
       </c>
       <c r="C98">
-        <v>0.02805155457845096</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.03096444496216511</v>
+      </c>
+      <c r="D98">
+        <v>-0.0986422302439979</v>
+      </c>
+      <c r="E98">
+        <v>0.01065059637270591</v>
+      </c>
+      <c r="F98">
+        <v>-0.0973697458620793</v>
+      </c>
+      <c r="G98">
+        <v>0.009959831874734331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05395662357666927</v>
+        <v>-0.05366532753249196</v>
       </c>
       <c r="C99">
-        <v>0.05879391196883241</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.05906365793920245</v>
+      </c>
+      <c r="D99">
+        <v>0.009297268370503766</v>
+      </c>
+      <c r="E99">
+        <v>0.004107248924981547</v>
+      </c>
+      <c r="F99">
+        <v>0.0326652432240433</v>
+      </c>
+      <c r="G99">
+        <v>-0.01400276840543434</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1084537103376767</v>
+        <v>-0.102180268405207</v>
       </c>
       <c r="C100">
-        <v>0.3926344367356372</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.3628091246242995</v>
+      </c>
+      <c r="D100">
+        <v>-0.6678402039919069</v>
+      </c>
+      <c r="E100">
+        <v>0.5308768957625473</v>
+      </c>
+      <c r="F100">
+        <v>-0.09611260302510555</v>
+      </c>
+      <c r="G100">
+        <v>-0.03168160977857081</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02356673790232022</v>
+        <v>-0.02640915327170219</v>
       </c>
       <c r="C101">
-        <v>0.05091102830798439</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.04853421463874933</v>
+      </c>
+      <c r="D101">
+        <v>0.02111483815356476</v>
+      </c>
+      <c r="E101">
+        <v>-0.01282939499050897</v>
+      </c>
+      <c r="F101">
+        <v>0.06984280367471474</v>
+      </c>
+      <c r="G101">
+        <v>-0.001001704701039882</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
